--- a/doc/saas-ui设计.xlsx
+++ b/doc/saas-ui设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bianxueming/WorkFolder/velen-saas/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB8315-48A6-7F4A-BBC2-4C0E1964164D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA06EB-919B-BF4B-97D3-446F2B0D92F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30620" yWindow="-1640" windowWidth="38400" windowHeight="17100" activeTab="4" xr2:uid="{40550DC4-B2A8-864D-91D9-2B1A7BB5BD53}"/>
+    <workbookView xWindow="28800" yWindow="-1640" windowWidth="38400" windowHeight="17100" activeTab="7" xr2:uid="{40550DC4-B2A8-864D-91D9-2B1A7BB5BD53}"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="1" r:id="rId1"/>
@@ -3593,7 +3593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA55BBF-232B-0E4A-B036-791252906622}">
   <dimension ref="B3:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -3741,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2275587-BEC6-7443-AE94-CEE6AB7F9961}">
   <dimension ref="B2:AB83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView topLeftCell="A21" zoomScale="87" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3906,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9417F313-5E75-3A46-987E-71B4FB8FD188}">
   <dimension ref="B3:V53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/doc/saas-ui设计.xlsx
+++ b/doc/saas-ui设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bianxueming/WorkFolder/velen-saas/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA06EB-919B-BF4B-97D3-446F2B0D92F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C345B-E82C-B34F-8E46-DD5613D79ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1640" windowWidth="38400" windowHeight="17100" activeTab="7" xr2:uid="{40550DC4-B2A8-864D-91D9-2B1A7BB5BD53}"/>
+    <workbookView xWindow="30320" yWindow="-1600" windowWidth="38400" windowHeight="17100" xr2:uid="{40550DC4-B2A8-864D-91D9-2B1A7BB5BD53}"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="200">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,27 +930,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;概览&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;分析&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有弹出菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;账号名&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示账号名，点击弹出菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;菜单&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1084,6 +1068,30 @@
   </si>
   <si>
     <t>【概览】中组件显示的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;个人中心&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开账号设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;修改密码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;功能项&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;弹出菜单&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是所有功能项都会有弹出菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1436,16 +1444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>159554</xdr:rowOff>
+      <xdr:rowOff>28321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:rowOff>46566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1468,7 +1476,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="972354"/>
+          <a:off x="19028834" y="841121"/>
           <a:ext cx="17360900" cy="2456645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1476,6 +1484,550 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71966</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>656166</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>194734</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="组合 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C5B53F-3471-AC4E-8507-C334017766CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="897466" y="838387"/>
+          <a:ext cx="17094200" cy="2404347"/>
+          <a:chOff x="4825357" y="4890705"/>
+          <a:chExt cx="17144839" cy="2368872"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="图片 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74748DB-0A28-8F4F-8F67-D9127E1350CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4825357" y="4890705"/>
+            <a:ext cx="17144839" cy="2368872"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="圆角矩形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6142F6B-829E-E142-981E-5FAFA63A5041}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5220182" y="5242528"/>
+            <a:ext cx="317500" cy="363799"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="圆角矩形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0ECD55-0EE2-2C47-BA23-20AC51A81B7C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7194466" y="5234491"/>
+            <a:ext cx="317500" cy="363799"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="圆角矩形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D25FF30-2FE4-A640-8D4A-284FE0C84746}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7575466" y="5234491"/>
+            <a:ext cx="317500" cy="363799"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="圆角矩形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E301393B-C342-754D-9288-79713E6E81C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20144772" y="5101703"/>
+            <a:ext cx="319912" cy="363799"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="圆角矩形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C39A65B-86D7-1441-93B1-3EB02974AB62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21327077" y="4987885"/>
+            <a:ext cx="317500" cy="363799"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="圆角矩形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07BFD4C-4224-164C-92EF-E729D0A2156E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21327077" y="5369367"/>
+            <a:ext cx="317500" cy="366049"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="圆角矩形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2366AAF-773B-E448-B979-086FE36C8423}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21327077" y="6491307"/>
+            <a:ext cx="317500" cy="366050"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="圆角矩形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7325F173-26AF-DB4B-8B70-A0B4D8B0A918}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21327077" y="6875040"/>
+            <a:ext cx="317500" cy="363799"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2788,8 +3340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E127924B-8496-C645-BDE4-2776207201D8}" name="表2" displayName="表2" ref="C8:F12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="C8:F12" xr:uid="{9925AD36-5F85-1843-AE75-3A4D2A9D35B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E127924B-8496-C645-BDE4-2776207201D8}" name="表2" displayName="表2" ref="C8:F14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="C8:F14" xr:uid="{9925AD36-5F85-1843-AE75-3A4D2A9D35B4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{04CB8785-8DDF-9C45-98F9-7010A59F52F7}" name="版本"/>
     <tableColumn id="2" xr3:uid="{610F3CD6-C53B-5249-BC4C-9F5DBD4960C4}" name="修订时间"/>
@@ -3097,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF33C5C-9EC9-5946-882F-AD293C1AE3A6}">
-  <dimension ref="C6:N12"/>
+  <dimension ref="C6:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3185,6 +3737,14 @@
       <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="D13" s="5"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="D14" s="5"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3226,7 +3786,7 @@
         <v>148</v>
       </c>
       <c r="Z26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="2:27">
@@ -3292,7 +3852,7 @@
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="2:26">
@@ -3492,7 +4052,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3527,10 +4087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653DDD71-0402-5645-87F1-D3FA7BBAD396}">
-  <dimension ref="B22:D31"/>
+  <dimension ref="B22:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3538,48 +4098,85 @@
     <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="22" spans="2:4">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:5">
+      <c r="C23" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="C24" s="21" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="C25" s="22" t="s">
+      <c r="D29" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="9" t="s">
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="9">
+        <v>6</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9">
+        <v>7</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="21" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3593,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA55BBF-232B-0E4A-B036-791252906622}">
   <dimension ref="B3:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -3612,31 +4209,31 @@
     </row>
     <row r="24" spans="2:14">
       <c r="M24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="13:14">
       <c r="M49" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="13:14">
       <c r="M50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="13:14">
@@ -3644,23 +4241,23 @@
         <v>100</v>
       </c>
       <c r="N51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="13:14">
       <c r="M52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="13:14">
       <c r="M53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="2:2">
@@ -3670,12 +4267,12 @@
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3845,19 +4442,19 @@
     </row>
     <row r="30" spans="2:18">
       <c r="B30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
       <c r="R30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -3872,24 +4469,24 @@
     </row>
     <row r="44" spans="14:28">
       <c r="R44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="X44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="2:18">
       <c r="B62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -3906,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9417F313-5E75-3A46-987E-71B4FB8FD188}">
   <dimension ref="B3:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -4070,12 +4667,12 @@
         <v>105</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="19:22">
       <c r="S47" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T47" t="s">
         <v>48</v>
